--- a/soal-kunci-clean.xlsx
+++ b/soal-kunci-clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Sistem-penilaian-levenshtein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0AC15D-A88B-4D0B-880E-07064ABAA694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1D971-800A-4B6C-8B88-AD54191F2E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Soal</t>
   </si>
@@ -146,13 +146,107 @@
   </si>
   <si>
     <t>Contoh surat resmi dengan kop sekolah, isi undangan rapat, dan tanda tangan kepala sekolah.</t>
+  </si>
+  <si>
+    <t>Tuliskan 5 contoh kata dengan awalan "me-" yang menunjukkan suatu tindakan!</t>
+  </si>
+  <si>
+    <t>Melihat, memukul, menulis, mengangkat, mengejar.</t>
+  </si>
+  <si>
+    <t>Jelaskan fungsi awalan "me-" dalam sebuah kalimat!</t>
+  </si>
+  <si>
+    <t>Awalan "me-" digunakan untuk menyatakan aktivitas atau tindakan yang dilakukan oleh subjek.</t>
+  </si>
+  <si>
+    <t>Buat satu kalimat menggunakan kata berawalan "di-"!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kue itu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dibuat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oleh nenek dengan penuh cinta.</t>
+    </r>
+  </si>
+  <si>
+    <t>Apa perbedaan fungsi awalan "me-" dan "di-"?</t>
+  </si>
+  <si>
+    <t>Awalan "me-" menyatakan suatu tindakan yang dilakukan subjek, sedangkan "di-" menyatakan tindakan yang diterima oleh subjek atau bersifat pasif.</t>
+  </si>
+  <si>
+    <t>Tuliskan 3 contoh kata yang menggunakan awalan "ke-" yang menunjukkan arah atau tujuan!</t>
+  </si>
+  <si>
+    <t>Ke sekolah, ke pasar, ke rumah.</t>
+  </si>
+  <si>
+    <t>Buat satu kalimat menggunakan kata yang diawali dengan "ke-" sebagai penunjuk arah!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ayah pergi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ke kantor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pagi ini.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tuliskan 3 contoh kata dengan awalan "di-" dan buat kalimat untuk masing-masing contoh!</t>
+  </si>
+  <si>
+    <t>Dilihat: Pemandangan indah itu dilihat oleh para wisatawan,Dibersihkan: Kelas kami dibersihkan setiap pagi,Ditulis: Tugas tersebut ditulis dengan rapi oleh siswa.</t>
+  </si>
+  <si>
+    <t>Buat sebuah paragraf dengan minimal 5 kalimat yang menggunakan kata dengan awalan "me-", "di-", dan "ke-"!</t>
+  </si>
+  <si>
+    <t>Kemarin ibu memotong sayur di dapur. Sayur itu kemudian dimasak dengan bumbu yang lezat. Setelah matang, makanan itu dibawa ke meja makan. Ayah pun menikmati makan siangnya dengan lahap. Kami semua merasa senang karena masakan ibu sangat lezat.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +258,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -508,16 +610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="89.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="246.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -688,6 +790,70 @@
         <v>41</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/soal-kunci-clean.xlsx
+++ b/soal-kunci-clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Sistem-penilaian-levenshtein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1D971-800A-4B6C-8B88-AD54191F2E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB76CC4-C6B6-4B51-962F-8C3998ADB513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Soal</t>
   </si>
@@ -240,6 +240,208 @@
   </si>
   <si>
     <t>Kemarin ibu memotong sayur di dapur. Sayur itu kemudian dimasak dengan bumbu yang lezat. Setelah matang, makanan itu dibawa ke meja makan. Ayah pun menikmati makan siangnya dengan lahap. Kami semua merasa senang karena masakan ibu sangat lezat.</t>
+  </si>
+  <si>
+    <t>Sebutkan 3 kata berawalan "me-" yang mengalami perubahan bentuk akibat aturan peluluhan huruf!</t>
+  </si>
+  <si>
+    <t>Memotong, menyapu, mengecat.</t>
+  </si>
+  <si>
+    <t>Mengapa awalan "me-" pada kata "menulis" berubah menjadi "men-"?</t>
+  </si>
+  <si>
+    <t>1. Karena huruf pertama dari kata dasar "tulis" adalah huruf "t" yang memicu perubahan awalan menjadi "men-".</t>
+  </si>
+  <si>
+    <t>Sebutkan aturan perubahan awalan "me-" sesuai huruf awal kata dasar!</t>
+  </si>
+  <si>
+    <t>me- (untuk huruf l, m, n, ng, ny, r, w),mem- (untuk huruf b, f, p, v),men- (untuk huruf d, j, c, t, z),meny- (untuk huruf s yang tidak luluh),menge- (untuk kata satu suku kata).</t>
+  </si>
+  <si>
+    <t>Buatlah kalimat dengan kata berawalan "mem-" yang menunjukkan kegiatan sehari-hari!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ibu sedang </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memasak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> di dapur.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tuliskan contoh kalimat dengan kata berawalan "menge-" dan jelaskan artinya!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kakak sedang </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mengecat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tembok rumah. (Artinya adalah melakukan kegiatan mewarnai permukaan tembok dengan cat).</t>
+    </r>
+  </si>
+  <si>
+    <t>Apa fungsi awalan "ke-" selain sebagai penunjuk arah? Berikan contohnya!</t>
+  </si>
+  <si>
+    <t>Awalan "ke-" juga digunakan untuk menyatakan keadaan atau bilangan, misalnya: kesembilan (menyatakan urutan).</t>
+  </si>
+  <si>
+    <t>Buatlah kalimat dengan kata yang menggunakan awalan "ke-" yang menyatakan bilangan!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dia berhasil meraih juara </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kedua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dalam lomba lari.</t>
+    </r>
+  </si>
+  <si>
+    <t>Buat kalimat yang menunjukkan perbedaan penggunaan awalan "di-" dan "ke-"!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Buku itu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diletakkan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> di meja. (di sebagai tempat),Ayah pergi ke pasar pagi ini. (ke sebagai arah).</t>
+    </r>
+  </si>
+  <si>
+    <t>Jelaskan bagaimana perubahan awalan "me-" pada kata yang dimulai dengan huruf "s"! Berikan contohnya.</t>
+  </si>
+  <si>
+    <t>Awalan "me-" berubah menjadi "meny-" apabila huruf "s" luluh. Contohnya: "menyapu" (dari kata sapu).</t>
+  </si>
+  <si>
+    <t>Tuliskan 5 contoh kata dengan awalan "di-" yang digunakan dalam kalimat pasif!</t>
+  </si>
+  <si>
+    <t>1.Diambil: Buku itu diambil oleh kakak,2.Dimasak: Makanan itu dimasak dengan bumbu pedas,3. Dibersihkan: Kamar hotel dibersihkan setiap pagi,4. Disimpan: Barang itu disimpan dengan hati-hati, 5.Ditulis: Surat itu ditulis dengan tinta biru.</t>
+  </si>
+  <si>
+    <t>Mengapa penggunaan awalan "di-" sering membingungkan siswa dalam penulisan?</t>
+  </si>
+  <si>
+    <t>Karena sering kali siswa tidak membedakan penggunaan "di" sebagai awalan dengan "di" sebagai kata depan (yang harus dipisah).</t>
+  </si>
+  <si>
+    <t>Sebutkan perbedaan antara "di-" sebagai awalan dan "di" sebagai kata depan beserta contohnya!</t>
+  </si>
+  <si>
+    <t>"di-" sebagai awalan: Ditemukan (berarti menerima suatu tindakan) , "di" sebagai kata depan: di meja (menunjukkan tempat, harus dipisah).</t>
+  </si>
+  <si>
+    <t>Buat kalimat dengan kata "melihat"!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Saya </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>melihat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pelangi di langit setelah hujan.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jelaskan arti dari kata "menulis"!</t>
+  </si>
+  <si>
+    <t>"Menulis" berarti membuat huruf, angka, atau simbol di atas media seperti kertas atau papan dengan alat tulis.</t>
+  </si>
+  <si>
+    <t>Sebutkan 5 contoh kata kerja berawalan "me-"!</t>
   </si>
 </sst>
 </file>
@@ -303,10 +505,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="58" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,6 +1059,123 @@
         <v>57</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/soal-kunci-clean.xlsx
+++ b/soal-kunci-clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Sistem-penilaian-levenshtein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB76CC4-C6B6-4B51-962F-8C3998ADB513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF672CF-9432-4255-902C-49DDDD9A0410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="297">
   <si>
     <t>Soal</t>
   </si>
@@ -442,6 +442,813 @@
   </si>
   <si>
     <t>Sebutkan 5 contoh kata kerja berawalan "me-"!</t>
+  </si>
+  <si>
+    <t>Melompat, memukul, menyapu, mengejar, menonton.</t>
+  </si>
+  <si>
+    <t>Buat kalimat yang menunjukkan aktivitas dengan awalan "mem-"!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ibu sedang </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memasak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sayur di dapur.</t>
+    </r>
+  </si>
+  <si>
+    <t>Apa fungsi awalan "di-" dalam kalimat pasif?</t>
+  </si>
+  <si>
+    <t>Awalan "di-" digunakan untuk menyatakan bahwa suatu tindakan diterima atau dilakukan terhadap subjek (kalimat pasif).</t>
+  </si>
+  <si>
+    <t>Tuliskan perbedaan kalimat aktif dan pasif dengan awalan "me-" dan "di-"!</t>
+  </si>
+  <si>
+    <t>Kalimat aktif: Ayah memotong rumput di halaman,Kalimat pasif: Rumput dipotong oleh ayah di halaman.</t>
+  </si>
+  <si>
+    <t>Jelaskan arti kata "ditemukan"!</t>
+  </si>
+  <si>
+    <t>"Ditemukan" berarti sesuatu yang telah berhasil dilihat atau didapatkan setelah dicari.</t>
+  </si>
+  <si>
+    <t>Buat kalimat dengan kata "ditanam"!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pohon mangga itu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ditanam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oleh kakek di kebun belakang rumah.</t>
+    </r>
+  </si>
+  <si>
+    <t>Apa fungsi awalan "ke-" dalam kata "keempat"?</t>
+  </si>
+  <si>
+    <t>Awalan "ke-" pada kata "keempat" menunjukkan urutan atau bilangan dalam suatu rangkaian.</t>
+  </si>
+  <si>
+    <t>Jelaskan aturan peluluhan huruf pada awalan "me-" dengan contoh!</t>
+  </si>
+  <si>
+    <t>Huruf awal "p" berubah menjadi "mem-": memukul,Huruf awal "t" berubah menjadi "men-": menari,Huruf awal "s" berubah menjadi "meny-": menyapu,Huruf awal "k" berubah menjadi "meng-": mengangkat</t>
+  </si>
+  <si>
+    <t>Tuliskan 3 contoh kata dengan awalan "menge-"!</t>
+  </si>
+  <si>
+    <t>Mengecat, mengejar, mengetuk.</t>
+  </si>
+  <si>
+    <t>Buat paragraf dengan minimal 3 kalimat menggunakan kata berawalan "di-"!</t>
+  </si>
+  <si>
+    <t>Rumah itu dibangun pada tahun 1990. Setiap pagi halamanrumah dibersihkan oleh ibu. Selain itu, tanaman di depan rumah juga disiram setiap sore.</t>
+  </si>
+  <si>
+    <t>Sebutkan contoh kata kerja berawalan "ke-" yang menunjukkan arah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ke sekolah, ke pantai, ke pasar.</t>
+  </si>
+  <si>
+    <t>Jelaskan arti kata "memasak"!</t>
+  </si>
+  <si>
+    <t>"Memasak" berarti mengolah bahan makanan dengan cara memanaskannya agar bisa dikonsumsi.</t>
+  </si>
+  <si>
+    <t>Buat kalimat yang menunjukkan penggunaan awalan "ke-" sebagai penunjuk urutan!</t>
+  </si>
+  <si>
+    <t>Tim kami berhasil meraih posisi ketiga dalam lomba futsal.</t>
+  </si>
+  <si>
+    <t>Tuliskan contoh kalimat dengan kata "dibawa"!</t>
+  </si>
+  <si>
+    <t>Makanan itu dibawa oleh ibu ke rumah nenek.</t>
+  </si>
+  <si>
+    <t>Sebutkan fungsi awalan "di-" selain menunjukkan tempat!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Menunjukkan tindakan yang diterima oleh subjek, contohnya: Buku itu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dibaca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oleh siswa.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jelaskan perbedaan makna antara "memasang" dan "dipasang"!</t>
+  </si>
+  <si>
+    <t>"Memasang" berarti melakukan tindakan untuk menempatkan sesuatu di tempat tertentu (kalimat aktif),"Dipasang" berarti menerima tindakan pemasangan oleh subjek (kalimat pasif).</t>
+  </si>
+  <si>
+    <t>Buat paragraf pendek dengan penggunaan awalan "ke-" yang menunjukkan bilangan!</t>
+  </si>
+  <si>
+    <t>Dalam perlombaan itu, saya mendapatkan posisi kedua. Teman saya berada di posisi ketiga, sementara lawan kami berhasil menjadi keempat. Semua peserta berlomba dengan sangat sportif.</t>
+  </si>
+  <si>
+    <t>elaskan penggunaan awalan "meny-" dalam kalimat!</t>
+  </si>
+  <si>
+    <t>Awalan "meny-" digunakan pada kata yang dimulai dengan huruf "s" yang luluh. Contoh: "menyapu" (dari sapu).</t>
+  </si>
+  <si>
+    <t>Berikan contoh kata berawalan "mem-" yang tidak mengalami peluluhan huruf!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Membeli, membangun, memimpin.</t>
+  </si>
+  <si>
+    <t>Sebutkan aturan penggunaan awalan "di-" dalam kalimat pasif!</t>
+  </si>
+  <si>
+    <t>Awalan "di-" digunakan jika subjek menerima tindakan. Biasanya subjek berada di belakang atau tidak disebutkan.</t>
+  </si>
+  <si>
+    <t>Buat kalimat dengan awalan "ke-" yang menunjukkan tujuan perjalanan!</t>
+  </si>
+  <si>
+    <t>Kami akan pergi ke pantai saat liburan nanti.</t>
+  </si>
+  <si>
+    <t>Jelaskan arti kata "diletakkan"!</t>
+  </si>
+  <si>
+    <t>"Diletakkan" berarti menempatkan sesuatu di suatu tempat dan menerima tindakan tersebut (bersifat pasif).</t>
+  </si>
+  <si>
+    <t>Tuliskan contoh kalimat dengan awalan "di-" dan "me-" dalam satu paragraf!</t>
+  </si>
+  <si>
+    <t>Kakak sedang memasak di dapur. Ayah dibantu oleh adik membersihkan halaman. Sementara itu, ibu membaca majalah di ruang tamu.</t>
+  </si>
+  <si>
+    <t>Jelaskan perbedaan penggunaan awalan "ke-" dan "di-" dalam konteks tempat!</t>
+  </si>
+  <si>
+    <t>"ke-" menunjukkan arah atau tujuan (contoh: ke pasar),"di-" menunjukkan posisi tetap atau tempat (contoh: di rumah).</t>
+  </si>
+  <si>
+    <t>Buat kalimat dengan kata "mengecat"!</t>
+  </si>
+  <si>
+    <t>Kami sedang mengecat pagar rumah menjadi warna biru.</t>
+  </si>
+  <si>
+    <t>Sebutkan fungsi awalan "me-" dalam kalimat aktif!</t>
+  </si>
+  <si>
+    <t>Menyatakan bahwa subjek melakukan suatu tindakan atau aktivitas.</t>
+  </si>
+  <si>
+    <t>Tuliskan 3 contoh kalimat menggunakan kata dengan awalan "di-" yang bersifat pasif!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Surat itu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ditulis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oleh Dina,Buku tersebut dipinjam oleh Budi,Makanan tadi dimakan oleh adik.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jelaskan bagaimana aturan perubahan awalan "me-" pada kata yang dimulai dengan huruf "k"!</t>
+  </si>
+  <si>
+    <t>Awalan "me-" berubah menjadi "meng-" apabila huruf awal kata dasar adalah "k" dan huruf "k" luluh. Contoh: "mengangkat" (dari kata dasar "angkat").</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan teks lisan?</t>
+  </si>
+  <si>
+    <t>Teks lisan adalah teks yang disampaikan secara langsung dengan menggunakan suara atau berbicara, bukan dalam bentuk tulisan.</t>
+  </si>
+  <si>
+    <t>Sebutkan 2 contoh situasi yang menggunakan teks lisan!</t>
+  </si>
+  <si>
+    <t>Saat guru memberikan penjelasan di kelas dan saat teman berbicara di depan kelas.</t>
+  </si>
+  <si>
+    <t>Apa perbedaan antara teks lisan dan teks tulisan?</t>
+  </si>
+  <si>
+    <t>Teks lisan disampaikan secara langsung dengan suara,Teks tulisan disampaikan dalam bentuk tulisan yang dapat dibaca.</t>
+  </si>
+  <si>
+    <t>Mengapa mendengarkan teks lisan penting?</t>
+  </si>
+  <si>
+    <t>Karena membantu kita memahami informasi yang disampaikan secara langsung.</t>
+  </si>
+  <si>
+    <t>Apa yang harus diperhatikan saat menyampaikan teks lisan?</t>
+  </si>
+  <si>
+    <t>Intonasi, pelafalan, volume suara, dan kontak mata.</t>
+  </si>
+  <si>
+    <t>Bagaimana cara memahami isi teks lisan dengan baik?</t>
+  </si>
+  <si>
+    <t>Dengan mendengarkan secara saksama dan mencatat hal-hal penting.</t>
+  </si>
+  <si>
+    <t>Sebutkan 3 situasi yang memerlukan teks lisan formal!</t>
+  </si>
+  <si>
+    <t>Pidato, presentasi di sekolah, dan wawancara resmi.</t>
+  </si>
+  <si>
+    <t>Apa yang harus diperhatikan saat mendengarkan teks lisan?</t>
+  </si>
+  <si>
+    <t>Fokus pada isi pembicaraan dan memahami pesan yang disampaikan.</t>
+  </si>
+  <si>
+    <t>Mengapa intonasi penting dalam teks lisan?</t>
+  </si>
+  <si>
+    <t>Karena intonasi dapat membantu pendengar memahami maksud dari pembicara.</t>
+  </si>
+  <si>
+    <t>Sebutkan 2 kesalahan umum dalam menyampaikan teks lisan!</t>
+  </si>
+  <si>
+    <t>Berbicara terlalu cepat dan suara yang terlalu pelan.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan gagasan pokok?</t>
+  </si>
+  <si>
+    <t>Gagasan pokok adalah ide utama yang menjadi inti pembahasan dalam sebuah paragraf.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan gagasan pendukung?</t>
+  </si>
+  <si>
+    <t>Gagasan pendukung adalah ide tambahan yang menjelaskan atau memperkuat gagasan pokok.</t>
+  </si>
+  <si>
+    <t>Bagaimana cara menemukan gagasan pokok dalam sebuah paragraf?</t>
+  </si>
+  <si>
+    <t>Dengan mencari kalimat utama yang biasanya berada di awal, tengah, atau akhir paragraf.</t>
+  </si>
+  <si>
+    <t>Sebutkan perbedaan antara gagasan pokok dan gagasan pendukung!</t>
+  </si>
+  <si>
+    <t>Gagasan pokok adalah ide utama dalam paragraf,Gagasan pendukung menjelaskan atau memperkuat gagasan pokok.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan teks prosedur?</t>
+  </si>
+  <si>
+    <t>Teks prosedur adalah teks yang berisi langkah-langkah atau tahapan untuk melakukan sesuatu.</t>
+  </si>
+  <si>
+    <t>Sebutkan 3 contoh teks prosedur!</t>
+  </si>
+  <si>
+    <t>Cara membuat nasi goreng, cara menanam bunga, dan cara mencuci tangan dengan benar.</t>
+  </si>
+  <si>
+    <t>Apa tujuan dari teks prosedur?</t>
+  </si>
+  <si>
+    <t>Untuk memberikan panduan atau petunjuk melakukan sesuatu dengan benar.</t>
+  </si>
+  <si>
+    <t>Apa yang harus ada dalam teks prosedur?</t>
+  </si>
+  <si>
+    <t>Tujuan, bahan atau alat, serta langkah-langkah.</t>
+  </si>
+  <si>
+    <t>Mengapa teks prosedur penting dalam kehidupan sehari-hari?</t>
+  </si>
+  <si>
+    <t>Karena membantu kita melakukan sesuatu dengan benar dan terstruktur.</t>
+  </si>
+  <si>
+    <t>Bagaimana cara menulis teks prosedur yang baik?</t>
+  </si>
+  <si>
+    <t>Menyusun langkah-langkah secara berurutan dan jelas.</t>
+  </si>
+  <si>
+    <t>Apa yang terjadi jika teks prosedur tidak diikuti dengan benar?</t>
+  </si>
+  <si>
+    <t>Hasil yang didapat tidak sesuai atau mengalami kegagalan.</t>
+  </si>
+  <si>
+    <t>Sebutkan ciri-ciri teks prosedur!</t>
+  </si>
+  <si>
+    <t>Menggunakan langkah-langkah, kalimat imperatif, dan bersifat informatif.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan kata depan?</t>
+  </si>
+  <si>
+    <t>Kata depan adalah kata yang digunakan untuk menghubungkan kata benda atau kata keterangan dengan kata lainnya dalam kalimat.</t>
+  </si>
+  <si>
+    <t>Sebutkan 3 contoh kata depan!</t>
+  </si>
+  <si>
+    <t>Di, ke, dari.</t>
+  </si>
+  <si>
+    <t>Buat kalimat dengan kata depan "ke"!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ayah pergi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ke pasar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pagi ini.</t>
+    </r>
+  </si>
+  <si>
+    <t>Apa perbedaan penggunaan kata depan "di" dan "ke"?</t>
+  </si>
+  <si>
+    <t>"Di" menunjukkan tempat yang tetap,"Ke" menunjukkan arah atau tujuan.</t>
+  </si>
+  <si>
+    <t>Buat kalimat yang menggunakan kata depan "dari"!</t>
+  </si>
+  <si>
+    <t>Dia baru saja pulang dari sekolah.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan kosakata?</t>
+  </si>
+  <si>
+    <t>Kosakata adalah kumpulan kata yang dimiliki seseorang atau suatu bahasa.</t>
+  </si>
+  <si>
+    <t>Mengapa memperkaya kosakata penting?</t>
+  </si>
+  <si>
+    <t>Agar dapat berkomunikasi dengan lebih baik dan memahami berbagai teks.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan paragraf?</t>
+  </si>
+  <si>
+    <t>Paragraf adalah kumpulan kalimat yang saling berhubungan dan membentuk satu kesatuan pikiran.</t>
+  </si>
+  <si>
+    <t>Sebutkan ciri-ciri paragraf yang baik!</t>
+  </si>
+  <si>
+    <t>Memiliki gagasan pokok, kalimat pendukung, dan kesatuan ide.</t>
+  </si>
+  <si>
+    <t>Apa fungsi kalimat penutup dalam paragraf?</t>
+  </si>
+  <si>
+    <t>Untuk memberikan kesimpulan atau penegasan dari isi paragraf.</t>
+  </si>
+  <si>
+    <t>Bagaimana cara membuat paragraf yang baik dan benar?</t>
+  </si>
+  <si>
+    <t>Dengan menentukan gagasan pokok, menyusun kalimat pendukung, dan menjaga kesinambungan antar kalimat.</t>
+  </si>
+  <si>
+    <t>Apa kelebihan dari teks lisan dibandingkan teks tulisan?</t>
+  </si>
+  <si>
+    <t>Teks lisan lebih cepat untuk disampaikan dan dapat langsung mendapatkan tanggapan dari pendengar.</t>
+  </si>
+  <si>
+    <t>Apa yang harus dilakukan jika tidak memahami teks lisan yang disampaikan?</t>
+  </si>
+  <si>
+    <t>Bertanya kepada pembicara atau meminta penjelasan ulang.</t>
+  </si>
+  <si>
+    <t>Sebutkan 2 ciri teks lisan yang efektif!</t>
+  </si>
+  <si>
+    <t>Suara yang jelas dan struktur pembicaraan yang mudah dipahami.</t>
+  </si>
+  <si>
+    <t>Bagaimana cara menjadi pendengar yang baik dalam teks lisan?</t>
+  </si>
+  <si>
+    <t>Fokus pada pembicaraan, tidak berbicara saat mendengarkan, dan mencatat hal penting jika perlu.</t>
+  </si>
+  <si>
+    <t>Mengapa penggunaan bahasa tubuh penting dalam teks lisan?</t>
+  </si>
+  <si>
+    <t>Karena bahasa tubuh dapat membantu memperjelas pesan yang disampaikan.</t>
+  </si>
+  <si>
+    <t>Bagaimana cara mengatasi rasa gugup saat menyampaikan teks lisan di depan orang banyak?</t>
+  </si>
+  <si>
+    <t>Latihan berbicara, menarik napas dalam, dan menjaga kontak mata dengan audiens.</t>
+  </si>
+  <si>
+    <t>Apa yang terjadi jika suatu paragraf tidak memiliki gagasan pokok?</t>
+  </si>
+  <si>
+    <t>Paragraf menjadi tidak jelas dan sulit dipahami pembaca.</t>
+  </si>
+  <si>
+    <t>Mengapa gagasan pendukung penting dalam sebuah paragraf?</t>
+  </si>
+  <si>
+    <t>Untuk memperjelas dan memperkuat gagasan pokok.</t>
+  </si>
+  <si>
+    <t>Bagaimana ciri kalimat yang mengandung gagasan pokok?</t>
+  </si>
+  <si>
+    <t>Kalimat tersebut mengandung ide utama dan biasanya tidak bergantung pada kalimat lain.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan paragraf deduktif?</t>
+  </si>
+  <si>
+    <t>Paragraf yang gagasan pokoknya terletak di awal paragraf.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan paragraf induktif?</t>
+  </si>
+  <si>
+    <t>Paragraf yang gagasan pokoknya terletak di akhir paragraf.</t>
+  </si>
+  <si>
+    <t>Sebutkan 2 manfaat memahami gagasan pokok dalam sebuah teks!</t>
+  </si>
+  <si>
+    <t>Memudahkan memahami isi teks dan membantu dalam membuat ringkasan.</t>
+  </si>
+  <si>
+    <t>Hasil yang diinginkan tidak tercapai atau terjadi kesalahan.</t>
+  </si>
+  <si>
+    <t>Mengapa kalimat imperatif sering digunakan dalam teks prosedur?</t>
+  </si>
+  <si>
+    <t>Karena teks prosedur berisi perintah atau instruksi.</t>
+  </si>
+  <si>
+    <t>Apa saja bagian penting dalam teks prosedur?</t>
+  </si>
+  <si>
+    <t>Tujuan, alat/bahan, dan langkah-langkah.</t>
+  </si>
+  <si>
+    <t>Bagaimana cara membuat teks prosedur yang jelas dan mudah dipahami?</t>
+  </si>
+  <si>
+    <t>Dengan menyusun langkah-langkah secara berurutan dan menggunakan bahasa yang sederhana.</t>
+  </si>
+  <si>
+    <t>Apa yang harus dilakukan jika langkah dalam teks prosedur tidak jelas?</t>
+  </si>
+  <si>
+    <t>Meminta penjelasan tambahan atau mencari referensi lain.</t>
+  </si>
+  <si>
+    <t>Memberikan panduan atau instruksi agar sesuatu dapat dilakukan dengan benar.</t>
+  </si>
+  <si>
+    <t>Apa yang terjadi jika kata depan tidak digunakan dengan benar dalam kalimat?</t>
+  </si>
+  <si>
+    <t>Kalimat menjadi tidak jelas atau memiliki makna yang salah.</t>
+  </si>
+  <si>
+    <t>Apa fungsi kata depan dalam kalimat?</t>
+  </si>
+  <si>
+    <t>Menghubungkan kata benda atau keterangan dengan kata lainnya.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan kosakata baku?</t>
+  </si>
+  <si>
+    <t>Kosakata yang sesuai dengan kaidah bahasa Indonesia yang benar.</t>
+  </si>
+  <si>
+    <t>Bagaimana cara memperkaya kosakata dengan mudah?</t>
+  </si>
+  <si>
+    <t>Dengan membaca berbagai jenis bacaan dan mencatat kosakata baru.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan homonim? Jelaskan dengan contoh!</t>
+  </si>
+  <si>
+    <t>Homonim adalah kata yang memiliki bentuk dan pelafalan yang sama, tetapi memiliki makna yang berbeda. Contoh: bisa (racun ular) dan bisa (mampu).</t>
+  </si>
+  <si>
+    <t>Bagaimana cara menentukan arti kata homonim dalam sebuah kalimat?</t>
+  </si>
+  <si>
+    <t>Dengan melihat konteks kalimat yang digunakan.</t>
+  </si>
+  <si>
+    <t>Jelaskan perbedaan homonim, homofon, dan homograf!</t>
+  </si>
+  <si>
+    <t>Homonim: Bentuk dan pelafalan sama, makna berbeda (contoh: bisa),Homofon: Pelafalan sama, penulisan dan makna berbeda (contoh: masa dan massa),Homograf: Penulisan sama, pelafalan dan makna berbeda (contoh: apel).</t>
+  </si>
+  <si>
+    <t>Apa perbedaan kalimat transitif dan intransitif? Jelaskan dengan contoh!</t>
+  </si>
+  <si>
+    <t>Kalimat transitif membutuhkan objek (contoh: Adik makan roti),Kalimat intransitif tidak membutuhkan objek (contoh: Ibu tidur siang).</t>
+  </si>
+  <si>
+    <t>Ubah kalimat berikut menjadi kalimat intransitif: "Budi memancing ikan di danau."</t>
+  </si>
+  <si>
+    <t>Budi memancing di danau.</t>
+  </si>
+  <si>
+    <t>Ubah kalimat berikut menjadi kalimat transitif: "Ibu memasak di dapur."</t>
+  </si>
+  <si>
+    <t>Ibu memasak sayur di dapur.</t>
+  </si>
+  <si>
+    <t>Mengapa kalimat intransitif tidak memerlukan objek?</t>
+  </si>
+  <si>
+    <t>Karena kalimat intransitif sudah memiliki makna lengkap tanpa tambahan objek.</t>
+  </si>
+  <si>
+    <t>Bagaimana cara mengenali kalimat transitif dalam sebuah paragraf?</t>
+  </si>
+  <si>
+    <t>Dengan mencari keberadaan kata kerja yang membutuhkan objek sebagai pelengkap kalimat.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan kalimat transitif? Jelaskan!</t>
+  </si>
+  <si>
+    <t>Kalimat transitif adalah kalimat yang membutuhkan objek untuk melengkapi maknanya.</t>
+  </si>
+  <si>
+    <t>Ubah kalimat berikut menjadi kalimat transitif: "Rina menyanyi."</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rina menyanyi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lagu favoritnya.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sebutkan tiga ciri utama kalimat transitif!</t>
+  </si>
+  <si>
+    <t>Mengandung kata kerja yang membutuhkan objek,Objek dapat berupa benda atau orang,Jika objek dihilangkan, kalimat menjadi tidak lengkap.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan kata kerja transitif? Berikan contohnya!</t>
+  </si>
+  <si>
+    <t>Kata kerja transitif adalah kata kerja yang membutuhkan objek. Contoh: menulis, membaca, memasak.</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan kalimat intransitif? Jelaskan!</t>
+  </si>
+  <si>
+    <t>Kalimat intransitif adalah kalimat yang tidak membutuhkan objek untuk melengkapi maknanya.</t>
+  </si>
+  <si>
+    <t>Tuliskan contoh kalimat intransitif yang menggunakan kata kerja tanpa objek!</t>
+  </si>
+  <si>
+    <t>Ibu beristirahat setelah bekerja.</t>
+  </si>
+  <si>
+    <t>Sebutkan tiga ciri kalimat intransitif!</t>
+  </si>
+  <si>
+    <t>Tidak membutuhkan objek,Mengandung kata kerja yang sudah bermakna lengkap,Dapat memiliki keterangan waktu atau tempat</t>
+  </si>
+  <si>
+    <t>Ubah kalimat berikut menjadi kalimat intransitif: "Andi menulis surat untuk teman."</t>
+  </si>
+  <si>
+    <t>Andi menulis di sore hari.</t>
+  </si>
+  <si>
+    <t>Karena kata kerja dalam kalimat intransitif sudah memiliki makna lengkap tanpa tambahan objek.</t>
+  </si>
+  <si>
+    <t>Tuliskan sebuah kalimat intransitif yang mengandung keterangan waktu!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nenek beristirahat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setelah makan siang.</t>
+    </r>
+  </si>
+  <si>
+    <t>Apa yang terjadi jika objek ditambahkan pada kalimat intransitif? Jelaskan dengan contoh!</t>
+  </si>
+  <si>
+    <t>Kalimat menjadi tidak sesuai secara tata bahasa. Contoh: "Nenek tidur meja" menjadi tidak benar.</t>
+  </si>
+  <si>
+    <t>Buat satu kalimat intransitif yang menggunakan keterangan cara!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adik makan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dengan lahap.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tuliskan kalimat transitif dengan objek berupa nama orang!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Guru memanggil </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ani</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ke depan kelas.</t>
+    </r>
+  </si>
+  <si>
+    <t>Bagaimana cara memahami instruksi dari audio?</t>
+  </si>
+  <si>
+    <t>Dengarkan audio dengan saksama tanpa gangguan,Fokus pada kata kunci yang penting dalam instruksi,Jika memungkinkan, catat informasi penting yang disebutkan.</t>
+  </si>
+  <si>
+    <t>Bagaimana cara menyampaikan pendapat?</t>
+  </si>
+  <si>
+    <t>Mulailah dengan salam dan perkenalan,Jelaskan pendapat secara jelas dan logis,Berikan alasan yang mendukung pendapat tersebut,Gunakan bahasa yang sopan dan tidak menyerang pihak lain.</t>
+  </si>
+  <si>
+    <t>Bagaimana cara membuat teks narasi menggunakan konjungsi?</t>
+  </si>
+  <si>
+    <t>Tentukan tema dan alur cerita yang ingin ditulis,Gunakan kalimat yang variatif dengan konjungsi yang tepat untuk membuat cerita lebih jelas.</t>
   </si>
 </sst>
 </file>
@@ -505,7 +1312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -513,6 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="58" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="B104" zoomScale="58" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1175,6 +1983,857 @@
       <c r="A44" t="s">
         <v>86</v>
       </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>182</v>
+      </c>
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>262</v>
+      </c>
+      <c r="B143" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" t="s">
+        <v>296</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
